--- a/Arbol genealogico.xlsx
+++ b/Arbol genealogico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Documents\BD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2015FBF8-4044-430F-9A01-1C4E328995CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482995A-AAA7-4964-8BA0-E5CAE09F826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5082B4BE-0934-4724-91B3-6F30D5608E7F}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Patricia Aguilera</t>
   </si>
   <si>
-    <t>Fabiana yupanqui</t>
-  </si>
-  <si>
     <t>Joaquin Chumacero</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>Chintio Chumacero yupanqui</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
   </si>
   <si>
     <t>PROGRAMACION I</t>
+  </si>
+  <si>
+    <t>Fabiola yupanqui</t>
+  </si>
+  <si>
+    <t>Juan Chumacero yupanqui</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438B9829-A4EE-4498-8EAC-557D63DEBDD9}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,24 +585,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -627,10 +627,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -640,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -653,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -683,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -700,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -713,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -730,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -747,10 +747,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -760,10 +760,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -774,52 +774,52 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -827,18 +827,18 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -846,18 +846,18 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -865,18 +865,18 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -884,18 +884,18 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -903,18 +903,18 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -922,18 +922,18 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -941,18 +941,18 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -960,18 +960,18 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -983,10 +983,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>

--- a/Arbol genealogico.xlsx
+++ b/Arbol genealogico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Documents\BD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\Documents\Universidad\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482995A-AAA7-4964-8BA0-E5CAE09F826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A22B66-1461-4BFE-80C4-47794E77E37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5082B4BE-0934-4724-91B3-6F30D5608E7F}"/>
+    <workbookView xWindow="11370" yWindow="2160" windowWidth="15180" windowHeight="13830" xr2:uid="{5082B4BE-0934-4724-91B3-6F30D5608E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -568,22 +568,22 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -605,7 +605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -695,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -814,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -833,7 +833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -852,7 +852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -871,7 +871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -890,7 +890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -909,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -928,7 +928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -947,7 +947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -966,7 +966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
